--- a/test files/Account Receviable invoices & ratesxlsx.xlsx
+++ b/test files/Account Receviable invoices & ratesxlsx.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscoded\Credit_App\Credit_App\test files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E63FC-0F9B-4524-9EFC-DE532802BC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statment" sheetId="6" r:id="rId1"/>
@@ -16,7 +22,10 @@
     <sheet name="SPO 5" sheetId="12" r:id="rId7"/>
     <sheet name="spo 6" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="72">
   <si>
     <t>Night</t>
   </si>
@@ -185,15 +194,78 @@
   </si>
   <si>
     <t>Main Rate D.FAM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>453.60</t>
+  </si>
+  <si>
+    <t>78.75</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>504.00</t>
+  </si>
+  <si>
+    <t>576.00</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>181.44</t>
+  </si>
+  <si>
+    <t>635.04</t>
+  </si>
+  <si>
+    <t>725.76</t>
+  </si>
+  <si>
+    <t>1935.36</t>
+  </si>
+  <si>
+    <t>967.68</t>
+  </si>
+  <si>
+    <t>96.77</t>
+  </si>
+  <si>
+    <t>691.20</t>
+  </si>
+  <si>
+    <t>1270.08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -499,7 +571,7 @@
   </borders>
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -540,14 +612,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,18 +631,15 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -635,7 +704,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +725,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,17 +738,11 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,52 +752,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="2"/>
-    <cellStyle name="Normal 10 3" xfId="3"/>
-    <cellStyle name="Normal 10 4" xfId="4"/>
-    <cellStyle name="Normal 140" xfId="5"/>
-    <cellStyle name="Normal 148" xfId="6"/>
-    <cellStyle name="Normal 149" xfId="7"/>
-    <cellStyle name="Normal 151" xfId="8"/>
-    <cellStyle name="Normal 152" xfId="40"/>
-    <cellStyle name="Normal 153" xfId="9"/>
-    <cellStyle name="Normal 154" xfId="10"/>
-    <cellStyle name="Normal 157" xfId="38"/>
-    <cellStyle name="Normal 158" xfId="39"/>
-    <cellStyle name="Normal 159" xfId="11"/>
-    <cellStyle name="Normal 160" xfId="12"/>
-    <cellStyle name="Normal 162" xfId="13"/>
-    <cellStyle name="Normal 163" xfId="14"/>
-    <cellStyle name="Normal 165" xfId="15"/>
-    <cellStyle name="Normal 166" xfId="16"/>
-    <cellStyle name="Normal 19 2" xfId="17"/>
-    <cellStyle name="Normal 19 3" xfId="18"/>
-    <cellStyle name="Normal 19 4" xfId="19"/>
-    <cellStyle name="Normal 2 2" xfId="20"/>
-    <cellStyle name="Normal 2 3" xfId="21"/>
-    <cellStyle name="Normal 2 4" xfId="22"/>
-    <cellStyle name="Normal 20 2" xfId="23"/>
-    <cellStyle name="Normal 20 3" xfId="24"/>
-    <cellStyle name="Normal 20 4" xfId="25"/>
-    <cellStyle name="Normal 23 2" xfId="26"/>
-    <cellStyle name="Normal 23 3" xfId="27"/>
-    <cellStyle name="Normal 23 4" xfId="28"/>
-    <cellStyle name="Normal 37 2" xfId="29"/>
-    <cellStyle name="Normal 37 3" xfId="30"/>
-    <cellStyle name="Normal 37 4" xfId="31"/>
-    <cellStyle name="Normal 38 2" xfId="32"/>
-    <cellStyle name="Normal 38 3" xfId="33"/>
-    <cellStyle name="Normal 38 4" xfId="34"/>
-    <cellStyle name="Normal 9 2" xfId="35"/>
-    <cellStyle name="Normal 9 3" xfId="36"/>
-    <cellStyle name="Normal 9 4" xfId="37"/>
+    <cellStyle name="Normal 10 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 10 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 10 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 140" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 148" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 149" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 151" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 152" xfId="40" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 153" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 154" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 157" xfId="38" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 158" xfId="39" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 159" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 160" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 162" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 163" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 165" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 166" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 19 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 19 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 19 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 20 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 20 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 20 4" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 23 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 23 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 23 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 37 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 37 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 37 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 38 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 38 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 38 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 9 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 9 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 9 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,6 +811,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="basic"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,7 +869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,9 +901,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,6 +953,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1033,10 +1146,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1055,52 +1168,52 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1115,46 +1228,46 @@
       <c r="D2" s="5">
         <v>2000</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <v>44940</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="35">
         <v>45092</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>45096</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="37">
         <f>IF(LEFT(H2,1)="S",1,IF(LEFT(H2,1)="D",2,IF(LEFT(H2,1)="T",3,IF(LEFT(H2,1)="Q",4))))</f>
         <v>2</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="37">
         <v>0</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="46" t="str">
+      <c r="L2" s="45" t="str">
         <f>IF(M2&gt;6,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="39">
         <f t="shared" ref="M2:M27" si="0">+G2-F2</f>
         <v>4</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="51">
-        <v>86.4</v>
-      </c>
-      <c r="P2" s="49">
+      <c r="O2" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="48">
         <v>33</v>
       </c>
       <c r="Q2" s="9">
         <f>+O2*P2</f>
-        <v>2851.2000000000003</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,17 +1294,17 @@
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="40">
         <f t="shared" ref="I3:I27" si="1">IF(LEFT(H3,1)="S",1,IF(LEFT(H3,1)="D",2,IF(LEFT(H3,1)="T",3,IF(LEFT(H3,1)="Q",4))))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="40">
         <v>1</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="46" t="str">
+      <c r="L3" s="45" t="str">
         <f>IF(M3&gt;6,"Yes","No")</f>
         <v>Yes</v>
       </c>
@@ -1202,15 +1315,15 @@
       <c r="N3" s="11">
         <v>150.04</v>
       </c>
-      <c r="O3" s="50">
-        <v>322.16000000000003</v>
-      </c>
-      <c r="P3" s="49">
+      <c r="O3" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="48">
         <v>33</v>
       </c>
       <c r="Q3" s="9">
         <f t="shared" ref="Q3:Q27" si="2">+O3*P3</f>
-        <v>10631.28</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1">
@@ -1235,20 +1348,20 @@
       <c r="G4" s="4">
         <v>45098</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="40">
         <v>2</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="46" t="str">
+      <c r="L4" s="45" t="str">
         <f t="shared" ref="L4:L35" si="4">IF(M4&gt;6,"Yes","No")</f>
         <v>Yes</v>
       </c>
@@ -1256,16 +1369,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="50">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="P4" s="49">
+      <c r="N4" s="40"/>
+      <c r="O4" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="48">
         <v>33</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <f t="shared" si="2"/>
-        <v>9715.1999999999989</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1">
@@ -1293,17 +1406,17 @@
       <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="40">
         <v>1</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="46" t="str">
+      <c r="L5" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
@@ -1311,16 +1424,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="50">
-        <v>730.8</v>
-      </c>
-      <c r="P5" s="49">
+      <c r="N5" s="40"/>
+      <c r="O5" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="48">
         <v>33</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <f t="shared" si="2"/>
-        <v>24116.399999999998</v>
+        <v>20790</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
@@ -1345,20 +1458,20 @@
       <c r="G6" s="4">
         <v>45099</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="40">
         <v>0</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="46" t="str">
+      <c r="L6" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
@@ -1366,16 +1479,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="50">
-        <v>102</v>
-      </c>
-      <c r="P6" s="49">
+      <c r="N6" s="40"/>
+      <c r="O6" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="48">
         <v>33</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <f t="shared" si="2"/>
-        <v>3366</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" thickTop="1">
@@ -1394,26 +1507,26 @@
       <c r="E7" s="4">
         <v>44966</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>45092</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>45096</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="40">
         <v>0</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="46" t="str">
+      <c r="L7" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
@@ -1421,16 +1534,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="50">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="P7" s="49">
+      <c r="N7" s="40"/>
+      <c r="O7" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="48">
         <v>33</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <f t="shared" si="2"/>
-        <v>2692.7999999999997</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75">
@@ -1458,17 +1571,17 @@
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>0</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="46" t="str">
+      <c r="L8" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
@@ -1476,16 +1589,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="50">
-        <v>1500</v>
-      </c>
-      <c r="P8" s="49">
+      <c r="N8" s="40"/>
+      <c r="O8" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="48">
         <v>33</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <f t="shared" si="2"/>
-        <v>49500</v>
+        <v>63360</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75">
@@ -1513,17 +1626,17 @@
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="40">
         <v>0</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="46" t="str">
+      <c r="L9" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
@@ -1531,16 +1644,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="50">
-        <v>531.95000000000005</v>
-      </c>
-      <c r="P9" s="49">
+      <c r="N9" s="40"/>
+      <c r="O9" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="48">
         <v>33</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <f t="shared" si="2"/>
-        <v>17554.350000000002</v>
+        <v>14968.800000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75">
@@ -1568,17 +1681,17 @@
       <c r="H10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="40">
         <v>0</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="46" t="str">
+      <c r="L10" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
@@ -1586,16 +1699,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="50">
-        <v>89.25</v>
-      </c>
-      <c r="P10" s="49">
+      <c r="N10" s="40"/>
+      <c r="O10" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="48">
         <v>33</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <f t="shared" si="2"/>
-        <v>2945.25</v>
+        <v>2598.75</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75">
@@ -1623,17 +1736,17 @@
       <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="40">
         <v>2</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="46" t="str">
+      <c r="L11" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
@@ -1641,892 +1754,892 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="50">
-        <v>252</v>
-      </c>
-      <c r="P11" s="49">
+      <c r="N11" s="40"/>
+      <c r="O11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="48">
         <v>33</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
+        <f t="shared" si="2"/>
+        <v>10395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75">
+      <c r="B12" s="10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>2010</v>
+      </c>
+      <c r="E12" s="4">
+        <v>44965</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45094</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45099</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="40">
+        <v>1</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N12" s="40"/>
+      <c r="O12" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="2"/>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75">
+      <c r="B13" s="10">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44886</v>
+      </c>
+      <c r="F13" s="55">
+        <v>45092</v>
+      </c>
+      <c r="G13" s="55">
+        <v>45096</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="40">
+        <v>0</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N13" s="40"/>
+      <c r="O13" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="2"/>
+        <v>16632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75">
+      <c r="B14" s="10">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="3"/>
+        <v>1012</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44939</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45081</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45097</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="40">
+        <v>0</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N14" s="40"/>
+      <c r="O14" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="2"/>
+        <v>19008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75">
+      <c r="B15" s="10">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="3"/>
+        <v>1013</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="3"/>
+        <v>2013</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44918</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45089</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45098</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="40">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="2"/>
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75">
+      <c r="B16" s="10">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="3"/>
+        <v>1014</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45039</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45063</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45068</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="40">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N16" s="40"/>
+      <c r="O16" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="12">
         <f t="shared" si="2"/>
         <v>8316</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75">
-      <c r="B12" s="10">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="10">
-        <f t="shared" si="3"/>
-        <v>1010</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="3"/>
-        <v>2010</v>
-      </c>
-      <c r="E12" s="4">
-        <v>44965</v>
-      </c>
-      <c r="F12" s="4">
+    <row r="17" spans="2:17" ht="15.75">
+      <c r="B17" s="10">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="3"/>
+        <v>1015</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44959</v>
+      </c>
+      <c r="F17" s="4">
         <v>45094</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G17" s="4">
         <v>45099</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="41">
+      <c r="H17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J12" s="41">
-        <v>1</v>
-      </c>
-      <c r="K12" s="42" t="s">
+      <c r="J17" s="40">
+        <v>0</v>
+      </c>
+      <c r="K17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="46" t="str">
+      <c r="L17" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M17" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="50">
-        <v>387.6</v>
-      </c>
-      <c r="P12" s="49">
+      <c r="N17" s="40"/>
+      <c r="O17" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="48">
         <v>33</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q17" s="12">
         <f t="shared" si="2"/>
-        <v>12790.800000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75">
-      <c r="B13" s="10">
-        <f t="shared" si="3"/>
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15.75">
+      <c r="B18" s="10">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="3"/>
+        <v>1016</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="E18" s="4">
+        <v>44959</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45136</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45143</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10">
-        <f t="shared" si="3"/>
-        <v>1011</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="3"/>
-        <v>2011</v>
-      </c>
-      <c r="E13" s="4">
-        <v>44886</v>
-      </c>
-      <c r="F13" s="58">
-        <v>45092</v>
-      </c>
-      <c r="G13" s="58">
-        <v>45096</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="2"/>
+        <v>5987.5199999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.75">
+      <c r="B19" s="10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" si="3"/>
+        <v>1017</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44943</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45137</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45144</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="40">
+        <v>0</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="2"/>
+        <v>20956.32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15.75">
+      <c r="B20" s="10">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" si="3"/>
+        <v>1018</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="3"/>
+        <v>2018</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44943</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45137</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45144</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="40">
+        <v>1</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N20" s="40"/>
+      <c r="O20" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="2"/>
+        <v>23950.079999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.75">
+      <c r="B21" s="10">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="10">
+        <f t="shared" si="3"/>
+        <v>1019</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45048</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45138</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45146</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="41">
-        <f t="shared" si="1"/>
+      <c r="I21" s="40">
         <v>3</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J21" s="40">
         <v>0</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K21" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="2"/>
+        <v>63866.879999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75">
+      <c r="B22" s="10">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="E22" s="4">
+        <v>44994</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45139</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45146</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22" s="40">
+        <v>0</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N22" s="40"/>
+      <c r="O22" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="2"/>
+        <v>31933.439999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="15.75">
+      <c r="B23" s="10">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" si="3"/>
+        <v>1021</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="E23" s="4">
+        <v>44993</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45143</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45147</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="40">
+        <v>0</v>
+      </c>
+      <c r="K23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="46" t="str">
+      <c r="L23" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M23" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="50">
-        <v>604.79999999999995</v>
-      </c>
-      <c r="P13" s="49">
+      <c r="N23" s="40"/>
+      <c r="O23" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="48">
         <v>33</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q23" s="12">
         <f t="shared" si="2"/>
-        <v>19958.399999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75">
-      <c r="B14" s="10">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="C14" s="10">
-        <f t="shared" si="3"/>
-        <v>1012</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="3"/>
-        <v>2012</v>
-      </c>
-      <c r="E14" s="4">
-        <v>44939</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45081</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45097</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="41">
+        <v>3193.41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" s="54" customFormat="1" ht="15.75">
+      <c r="B24" s="10">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="3"/>
+        <v>1022</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="E24" s="51">
+        <v>45119</v>
+      </c>
+      <c r="F24" s="51">
+        <v>45143</v>
+      </c>
+      <c r="G24" s="51">
+        <v>45148</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="50">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J24" s="50">
+        <v>1</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N24" s="50"/>
+      <c r="O24" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="2"/>
+        <v>22809.600000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="15.75">
+      <c r="B25" s="10">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="3"/>
+        <v>1023</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="3"/>
+        <v>2023</v>
+      </c>
+      <c r="E25" s="4">
+        <v>44897</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45144</v>
+      </c>
+      <c r="G25" s="4">
+        <v>45151</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J25" s="40">
         <v>0</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="46" t="str">
+      <c r="L25" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="M14" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="50">
-        <v>791.2</v>
-      </c>
-      <c r="P14" s="49">
+      <c r="M25" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N25" s="40"/>
+      <c r="O25" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="48">
         <v>33</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q25" s="12">
         <f t="shared" si="2"/>
-        <v>26109.600000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75">
-      <c r="B15" s="10">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="10">
-        <f t="shared" si="3"/>
-        <v>1013</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="3"/>
-        <v>2013</v>
-      </c>
-      <c r="E15" s="4">
-        <v>44918</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45089</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45098</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="41">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="41">
+        <v>41912.639999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="15.75">
+      <c r="B26" s="10">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45096</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45138</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45152</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="40">
         <v>0</v>
       </c>
-      <c r="K15" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="46" t="str">
+      <c r="K26" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="M15" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="50">
-        <v>1300</v>
-      </c>
-      <c r="P15" s="49">
+      <c r="M26" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="48">
         <v>33</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q26" s="12">
         <f t="shared" si="2"/>
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75">
-      <c r="B16" s="10">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="10">
-        <f t="shared" si="3"/>
-        <v>1014</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="3"/>
-        <v>2014</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45039</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45063</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45068</v>
-      </c>
-      <c r="H16" s="6" t="s">
+        <v>41912.639999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="15.75">
+      <c r="B27" s="10">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="3"/>
+        <v>1025</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45096</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45138</v>
+      </c>
+      <c r="G27" s="4">
+        <v>45152</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I27" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J16" s="41">
-        <v>0</v>
-      </c>
-      <c r="K16" s="42" t="s">
+      <c r="J27" s="40">
+        <v>1</v>
+      </c>
+      <c r="K27" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-      <c r="M16" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="50">
-        <v>267.75</v>
-      </c>
-      <c r="P16" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="13">
-        <f t="shared" si="2"/>
-        <v>8835.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="15.75">
-      <c r="B17" s="10">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="10">
-        <f t="shared" si="3"/>
-        <v>1015</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="3"/>
-        <v>2015</v>
-      </c>
-      <c r="E17" s="4">
-        <v>44959</v>
-      </c>
-      <c r="F17" s="4">
-        <v>45094</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45099</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="41">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J17" s="41">
-        <v>0</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-      <c r="M17" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="50">
-        <v>102</v>
-      </c>
-      <c r="P17" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="13">
-        <f t="shared" si="2"/>
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="15.75">
-      <c r="B18" s="10">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="C18" s="10">
-        <f t="shared" si="3"/>
-        <v>1016</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="3"/>
-        <v>2016</v>
-      </c>
-      <c r="E18" s="4">
-        <v>44959</v>
-      </c>
-      <c r="F18" s="4">
-        <v>45136</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45143</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="41">
-        <v>0</v>
-      </c>
-      <c r="K18" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="46" t="str">
+      <c r="L27" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="M18" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O18" s="50">
-        <v>305.63</v>
-      </c>
-      <c r="P18" s="49">
+      <c r="M27" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N27" s="40"/>
+      <c r="O27" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="48">
         <v>33</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q27" s="12">
         <f t="shared" si="2"/>
-        <v>10085.789999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="15.75">
-      <c r="B19" s="10">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="C19" s="10">
-        <f t="shared" si="3"/>
-        <v>1017</v>
-      </c>
-      <c r="D19" s="10">
-        <f t="shared" si="3"/>
-        <v>2017</v>
-      </c>
-      <c r="E19" s="4">
-        <v>44943</v>
-      </c>
-      <c r="F19" s="4">
-        <v>45137</v>
-      </c>
-      <c r="G19" s="4">
-        <v>45144</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="41">
-        <v>0</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="M19" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="50">
-        <v>812.05</v>
-      </c>
-      <c r="P19" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="13">
-        <f t="shared" si="2"/>
-        <v>26797.649999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15.75">
-      <c r="B20" s="10">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="10">
-        <f t="shared" si="3"/>
-        <v>1018</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" si="3"/>
-        <v>2018</v>
-      </c>
-      <c r="E20" s="4">
-        <v>44943</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45137</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45144</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="41">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J20" s="41">
-        <v>1</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="M20" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="50">
-        <v>927.37</v>
-      </c>
-      <c r="P20" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="13">
-        <f t="shared" si="2"/>
-        <v>30603.21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="15.75">
-      <c r="B21" s="10">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="10">
-        <f t="shared" si="3"/>
-        <v>1019</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" si="3"/>
-        <v>2019</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45048</v>
-      </c>
-      <c r="F21" s="4">
-        <v>45138</v>
-      </c>
-      <c r="G21" s="4">
-        <v>45146</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="41">
-        <v>3</v>
-      </c>
-      <c r="J21" s="41">
-        <v>0</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="M21" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="50">
-        <v>2200</v>
-      </c>
-      <c r="P21" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="13">
-        <f t="shared" si="2"/>
-        <v>72600</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="15.75">
-      <c r="B22" s="10">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="10">
-        <f t="shared" si="3"/>
-        <v>1020</v>
-      </c>
-      <c r="D22" s="10">
-        <f t="shared" si="3"/>
-        <v>2020</v>
-      </c>
-      <c r="E22" s="4">
-        <v>44994</v>
-      </c>
-      <c r="F22" s="4">
-        <v>45139</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45146</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22" s="41">
-        <v>0</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="M22" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="50">
-        <v>1178.1600000000001</v>
-      </c>
-      <c r="P22" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="13">
-        <f t="shared" si="2"/>
-        <v>38879.280000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="15.75">
-      <c r="B23" s="10">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" si="3"/>
-        <v>1021</v>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" si="3"/>
-        <v>2021</v>
-      </c>
-      <c r="E23" s="4">
-        <v>44993</v>
-      </c>
-      <c r="F23" s="4">
-        <v>45143</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45147</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="41">
-        <v>0</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-      <c r="M23" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="50">
-        <v>102.82</v>
-      </c>
-      <c r="P23" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="13">
-        <f t="shared" si="2"/>
-        <v>3393.06</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" s="57" customFormat="1" ht="15.75">
-      <c r="B24" s="10">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="C24" s="10">
-        <f t="shared" si="3"/>
-        <v>1022</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="3"/>
-        <v>2022</v>
-      </c>
-      <c r="E24" s="54">
-        <v>45119</v>
-      </c>
-      <c r="F24" s="54">
-        <v>45143</v>
-      </c>
-      <c r="G24" s="54">
-        <v>45148</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="53">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J24" s="53">
-        <v>1</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="56" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-      <c r="M24" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N24" s="53"/>
-      <c r="O24" s="12">
-        <v>656.64</v>
-      </c>
-      <c r="P24" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="13">
-        <f t="shared" si="2"/>
-        <v>21669.119999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="15.75">
-      <c r="B25" s="10">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="C25" s="10">
-        <f t="shared" si="3"/>
-        <v>1023</v>
-      </c>
-      <c r="D25" s="10">
-        <f t="shared" si="3"/>
-        <v>2023</v>
-      </c>
-      <c r="E25" s="4">
-        <v>44897</v>
-      </c>
-      <c r="F25" s="4">
-        <v>45144</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45151</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J25" s="41">
-        <v>0</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="M25" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="50">
-        <v>1674.1</v>
-      </c>
-      <c r="P25" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="13">
-        <f t="shared" si="2"/>
-        <v>55245.299999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="15.75">
-      <c r="B26" s="10">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" si="3"/>
-        <v>1024</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="3"/>
-        <v>2024</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45096</v>
-      </c>
-      <c r="F26" s="4">
-        <v>45138</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45152</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="41">
-        <v>0</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="M26" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="50">
-        <v>1320.08</v>
-      </c>
-      <c r="P26" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="13">
-        <f t="shared" si="2"/>
-        <v>43562.64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="15.75">
-      <c r="B27" s="10">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" si="3"/>
-        <v>1025</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="3"/>
-        <v>2025</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45096</v>
-      </c>
-      <c r="F27" s="4">
-        <v>45138</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45152</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="41">
-        <v>1</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-      <c r="M27" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="50">
-        <v>1193.07</v>
-      </c>
-      <c r="P27" s="49">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="13">
-        <f t="shared" si="2"/>
-        <v>39371.31</v>
+        <v>41912.639999999999</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="15.75">
@@ -2537,20 +2650,20 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41">
+      <c r="I28" s="40"/>
+      <c r="J28" s="40">
         <v>0</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="46" t="str">
+      <c r="K28" s="41"/>
+      <c r="L28" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="2:17" ht="15.75">
       <c r="B29" s="10"/>
@@ -2560,20 +2673,20 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41">
+      <c r="I29" s="40"/>
+      <c r="J29" s="40">
         <v>0</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="46" t="str">
+      <c r="K29" s="41"/>
+      <c r="L29" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="2:17" ht="15.75">
       <c r="B30" s="10"/>
@@ -2583,158 +2696,161 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41">
+      <c r="I30" s="40"/>
+      <c r="J30" s="40">
         <v>0</v>
       </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="46" t="str">
+      <c r="K30" s="41"/>
+      <c r="L30" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="2:17" ht="15.75">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41">
+      <c r="I31" s="40"/>
+      <c r="J31" s="40">
         <v>0</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="46" t="str">
+      <c r="K31" s="41"/>
+      <c r="L31" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="2:17" ht="15.75">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41">
+      <c r="I32" s="40"/>
+      <c r="J32" s="40">
         <v>0</v>
       </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="46" t="str">
+      <c r="K32" s="41"/>
+      <c r="L32" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="2:17" ht="15.75">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="41">
+      <c r="J33" s="40">
         <v>0</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="46" t="str">
+      <c r="K33" s="41"/>
+      <c r="L33" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="2:17" ht="15.75">
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="41">
+      <c r="J34" s="40">
         <v>0</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="46" t="str">
+      <c r="K34" s="41"/>
+      <c r="L34" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="2:17" ht="16.5" thickBot="1">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="43">
+      <c r="I35" s="46"/>
+      <c r="J35" s="42">
         <v>0</v>
       </c>
-      <c r="K35" s="44"/>
-      <c r="L35" s="46" t="str">
+      <c r="K35" s="43"/>
+      <c r="L35" s="45" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
     </row>
     <row r="36" spans="2:17" ht="13.5" thickTop="1"/>
     <row r="38" spans="2:17">
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K17 K19:K35">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K17 K19:K35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I17 I23:I35 I19:I20 H18:H35">
-      <formula1>'spo 6'!$I$1:$AA$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>'spo 6'!$I$1:$AA$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:I17 I23:I35 I19:I20 H18:H35</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{34625691-6328-479E-B89D-DC17A4B73AF3}">
           <x14:formula1>
-            <xm:f>basic!$I$1:$AG$1</xm:f>
+            <xm:f>basic!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F1</xm:sqref>
         </x14:dataValidation>
@@ -2751,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2789,726 +2905,726 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>45047</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>45061</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>10</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>20</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>30</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <v>40</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <v>50</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <v>60</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f>+C2*1.75</f>
         <v>17.5</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <f>+D2*1.75</f>
         <v>35</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <f>+E2*1.75</f>
         <v>52.5</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <f>+F2*1.75</f>
         <v>70</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f t="shared" ref="M2:R2" si="0">+C2*2</f>
         <v>20</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <f>+C2*2.8</f>
         <v>28</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <f>+E2*2.8</f>
         <v>84</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <f>+F2*2.8</f>
         <v>112</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="27">
         <f>+G2*2.8</f>
         <v>140</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="27">
         <f>+H2*2.8</f>
         <v>168</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <f>+G2*3.6</f>
         <v>180</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="29">
         <f>+E2*2.5</f>
         <v>75</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="29">
         <f>+F2*2.5</f>
         <v>100</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="29">
         <f>+G2*2.5</f>
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45062</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>45107</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>+C2*1.2</f>
         <v>12</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f t="shared" ref="D3:F7" si="1">+D2*1.2</f>
         <v>24</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f t="shared" ref="G3:G7" si="2">+G2*1.2</f>
         <v>60</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f t="shared" ref="H3:H7" si="3">+H2*1.2</f>
         <v>72</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f t="shared" ref="I3:I7" si="4">+C3*1.75</f>
         <v>21</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f t="shared" ref="J3:J7" si="5">+D3*1.75</f>
         <v>42</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <f t="shared" ref="K3:K7" si="6">+E3*1.75</f>
         <v>63</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <f t="shared" ref="L3:L7" si="7">+F3*1.75</f>
         <v>84</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <f t="shared" ref="M3:M7" si="8">+C3*2</f>
         <v>24</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f t="shared" ref="N3:N7" si="9">+D3*2</f>
         <v>48</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <f t="shared" ref="O3:O7" si="10">+E3*2</f>
         <v>72</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <f t="shared" ref="P3:P7" si="11">+F3*2</f>
         <v>96</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <f t="shared" ref="Q3:Q7" si="12">+G3*2</f>
         <v>120</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <f t="shared" ref="R3:R7" si="13">+H3*2</f>
         <v>144</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <f t="shared" ref="S3:S7" si="14">+C3*2.8</f>
         <v>33.599999999999994</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f t="shared" ref="T3:T7" si="15">+E3*2.8</f>
         <v>100.8</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f t="shared" ref="U3:U7" si="16">+F3*2.8</f>
         <v>134.39999999999998</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f t="shared" ref="V3:V7" si="17">+G3*2.8</f>
         <v>168</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f t="shared" ref="W3:W7" si="18">+H3*2.8</f>
         <v>201.6</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <f t="shared" ref="X3:X7" si="19">+G3*3.6</f>
         <v>216</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="29">
         <f t="shared" ref="Y3:Y7" si="20">+E3*2.5</f>
         <v>90</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="29">
         <f t="shared" ref="Z3:Z7" si="21">+F3*2.5</f>
         <v>120</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="29">
         <f t="shared" ref="AA3:AA7" si="22">+G3*2.5</f>
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>45108</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>45121</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <f t="shared" ref="C4:C7" si="23">+C3*1.2</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <f t="shared" si="1"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <f t="shared" si="1"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <f t="shared" si="1"/>
         <v>57.599999999999994</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <f t="shared" si="3"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f t="shared" si="4"/>
         <v>25.199999999999996</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <f t="shared" si="5"/>
         <v>50.399999999999991</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <f t="shared" si="6"/>
         <v>75.599999999999994</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <f t="shared" si="7"/>
         <v>100.79999999999998</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <f t="shared" si="8"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <f t="shared" si="9"/>
         <v>57.599999999999994</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <f t="shared" si="10"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <f t="shared" si="11"/>
         <v>115.19999999999999</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <f t="shared" si="12"/>
         <v>144</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <f t="shared" si="13"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="26">
         <f t="shared" si="14"/>
         <v>40.319999999999993</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="27">
         <f t="shared" si="15"/>
         <v>120.95999999999998</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="27">
         <f t="shared" si="16"/>
         <v>161.27999999999997</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="27">
         <f t="shared" si="17"/>
         <v>201.6</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="27">
         <f t="shared" si="18"/>
         <v>241.91999999999996</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="28">
         <f t="shared" si="19"/>
         <v>259.2</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="29">
         <f t="shared" si="20"/>
         <v>107.99999999999999</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="29">
         <f t="shared" si="21"/>
         <v>144</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="29">
         <f t="shared" si="22"/>
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>45122</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>45153</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <f t="shared" si="23"/>
         <v>17.279999999999998</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <f t="shared" si="1"/>
         <v>34.559999999999995</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <f t="shared" si="1"/>
         <v>51.839999999999996</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <f t="shared" si="1"/>
         <v>69.11999999999999</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f t="shared" si="2"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f t="shared" si="3"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" si="4"/>
         <v>30.239999999999995</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f t="shared" si="5"/>
         <v>60.47999999999999</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f t="shared" si="6"/>
         <v>90.72</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f t="shared" si="7"/>
         <v>120.95999999999998</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <f t="shared" si="8"/>
         <v>34.559999999999995</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f t="shared" si="9"/>
         <v>69.11999999999999</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <f t="shared" si="10"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <f t="shared" si="11"/>
         <v>138.23999999999998</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <f t="shared" si="12"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="25">
         <f t="shared" si="13"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="26">
         <f t="shared" si="14"/>
         <v>48.383999999999993</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <f t="shared" si="15"/>
         <v>145.15199999999999</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="27">
         <f t="shared" si="16"/>
         <v>193.53599999999997</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="27">
         <f t="shared" si="17"/>
         <v>241.91999999999996</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="27">
         <f t="shared" si="18"/>
         <v>290.30399999999997</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="28">
         <f t="shared" si="19"/>
         <v>311.03999999999996</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="29">
         <f t="shared" si="20"/>
         <v>129.6</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="29">
         <f t="shared" si="21"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="29">
         <f t="shared" si="22"/>
         <v>215.99999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>45154</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>45199</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <f t="shared" si="23"/>
         <v>20.735999999999997</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <f t="shared" si="1"/>
         <v>41.471999999999994</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <f t="shared" si="1"/>
         <v>62.207999999999991</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <f t="shared" si="1"/>
         <v>82.943999999999988</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <f t="shared" si="2"/>
         <v>103.67999999999999</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <f t="shared" si="3"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f t="shared" si="4"/>
         <v>36.287999999999997</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f t="shared" si="5"/>
         <v>72.575999999999993</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <f t="shared" si="6"/>
         <v>108.86399999999999</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <f t="shared" si="7"/>
         <v>145.15199999999999</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <f t="shared" si="8"/>
         <v>41.471999999999994</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <f t="shared" si="9"/>
         <v>82.943999999999988</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <f t="shared" si="10"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <f t="shared" si="11"/>
         <v>165.88799999999998</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <f t="shared" si="12"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="25">
         <f t="shared" si="13"/>
         <v>248.83199999999997</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="26">
         <f t="shared" si="14"/>
         <v>58.060799999999986</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="27">
         <f t="shared" si="15"/>
         <v>174.18239999999997</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="27">
         <f t="shared" si="16"/>
         <v>232.24319999999994</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="27">
         <f t="shared" si="17"/>
         <v>290.30399999999997</v>
       </c>
-      <c r="W6" s="28">
+      <c r="W6" s="27">
         <f t="shared" si="18"/>
         <v>348.36479999999995</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="28">
         <f t="shared" si="19"/>
         <v>373.24799999999999</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="29">
         <f t="shared" si="20"/>
         <v>155.51999999999998</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="29">
         <f t="shared" si="21"/>
         <v>207.35999999999996</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="29">
         <f t="shared" si="22"/>
         <v>259.2</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>45200</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>45230</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <f t="shared" si="23"/>
         <v>24.883199999999995</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <f t="shared" si="1"/>
         <v>49.76639999999999</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <f t="shared" si="1"/>
         <v>74.649599999999992</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <f t="shared" si="1"/>
         <v>99.53279999999998</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f t="shared" si="2"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f t="shared" si="3"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f t="shared" si="4"/>
         <v>43.545599999999993</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <f t="shared" si="5"/>
         <v>87.091199999999986</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <f t="shared" si="6"/>
         <v>130.63679999999999</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <f t="shared" si="7"/>
         <v>174.18239999999997</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <f t="shared" si="8"/>
         <v>49.76639999999999</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <f t="shared" si="9"/>
         <v>99.53279999999998</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <f t="shared" si="10"/>
         <v>149.29919999999998</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <f t="shared" si="11"/>
         <v>199.06559999999996</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <f t="shared" si="12"/>
         <v>248.83199999999997</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <f t="shared" si="13"/>
         <v>298.59839999999997</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="26">
         <f t="shared" si="14"/>
         <v>69.672959999999975</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <f t="shared" si="15"/>
         <v>209.01887999999997</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="27">
         <f t="shared" si="16"/>
         <v>278.6918399999999</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="27">
         <f t="shared" si="17"/>
         <v>348.36479999999995</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="27">
         <f t="shared" si="18"/>
         <v>418.03775999999993</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="28">
         <f t="shared" si="19"/>
         <v>447.89759999999995</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="Y7" s="29">
         <f t="shared" si="20"/>
         <v>186.62399999999997</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="29">
         <f t="shared" si="21"/>
         <v>248.83199999999994</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AA7" s="29">
         <f t="shared" si="22"/>
         <v>311.03999999999996</v>
       </c>
@@ -3520,7 +3636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3555,300 +3671,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>45047</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>45061</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <f>(95*0.95)*0.95</f>
         <v>85.737499999999997</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <f>100*0.95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <f>105*0.95*0.95</f>
         <v>94.762499999999989</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <f>120*0.95*0.95</f>
         <v>108.3</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>150*0.95*0.95</f>
         <v>135.375</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <f>86*0.95*0.95</f>
         <v>77.614999999999995</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f>+C2*1.75</f>
         <v>150.04062500000001</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <f>+D2*1.75</f>
         <v>157.9375</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <f>+E2*1.75</f>
         <v>165.83437499999997</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <f>+F2*1.75</f>
         <v>189.52500000000001</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f t="shared" ref="M2:R3" si="0">+C2*2</f>
         <v>171.47499999999999</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f t="shared" si="0"/>
         <v>180.5</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>189.52499999999998</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <f t="shared" si="0"/>
         <v>216.6</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>270.75</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f t="shared" si="0"/>
         <v>155.22999999999999</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <f>+C2*2.8</f>
         <v>240.06499999999997</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <f>+E2*2.8</f>
         <v>265.33499999999998</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <f>+F2*2.8</f>
         <v>303.23999999999995</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="27">
         <f>+G2*2.8</f>
         <v>379.04999999999995</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="27">
         <f>+H2*2.8</f>
         <v>217.32199999999997</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <f>+G2*3.6</f>
         <v>487.35</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="29">
         <f>+E2*2.5</f>
         <v>236.90624999999997</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="29">
         <f>+F2*2.5</f>
         <v>270.75</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="29">
         <f>+G2*2.5</f>
         <v>338.4375</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45062</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>45107</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>90*0.95*0.95</f>
         <v>81.224999999999994</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f>95*0.95*0.95</f>
         <v>85.737499999999997</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f>100*0.95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f>115*0.95*0.95</f>
         <v>103.78749999999999</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>143*0.95*0.95</f>
         <v>129.05749999999998</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>81*0.95*0.95</f>
         <v>73.102500000000006</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f t="shared" ref="I3:L3" si="1">+C3*1.75</f>
         <v>142.14374999999998</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f t="shared" si="1"/>
         <v>150.04062500000001</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <f t="shared" si="1"/>
         <v>157.9375</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <f t="shared" si="1"/>
         <v>181.62812499999998</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <f t="shared" si="0"/>
         <v>162.44999999999999</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f t="shared" si="0"/>
         <v>171.47499999999999</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <f t="shared" si="0"/>
         <v>180.5</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <f t="shared" si="0"/>
         <v>207.57499999999999</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <f t="shared" si="0"/>
         <v>258.11499999999995</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <f t="shared" si="0"/>
         <v>146.20500000000001</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <f t="shared" ref="S3" si="2">+C3*2.8</f>
         <v>227.42999999999998</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f t="shared" ref="T3:W3" si="3">+E3*2.8</f>
         <v>252.7</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f t="shared" si="3"/>
         <v>290.60499999999996</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f t="shared" si="3"/>
         <v>361.36099999999993</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f t="shared" si="3"/>
         <v>204.68700000000001</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <f t="shared" ref="X3" si="4">+G3*3.6</f>
         <v>464.60699999999991</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="29">
         <f t="shared" ref="Y3:AA3" si="5">+E3*2.5</f>
         <v>225.625</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="29">
         <f t="shared" si="5"/>
         <v>259.46875</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="29">
         <f t="shared" si="5"/>
         <v>322.64374999999995</v>
       </c>
@@ -3860,7 +3976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3895,300 +4011,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>45170</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>45199</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <f>95*0.95*0.95</f>
         <v>85.737499999999997</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <f>100*0.95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <f>105*0.95*0.95</f>
         <v>94.762499999999989</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <f>120*0.95*0.95</f>
         <v>108.3</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>150*0.95*0.95</f>
         <v>135.375</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <f>86*0.95*0.95</f>
         <v>77.614999999999995</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f t="shared" ref="I2:L3" si="0">+C2*1.75</f>
         <v>150.04062500000001</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <f t="shared" si="0"/>
         <v>157.9375</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <f t="shared" si="0"/>
         <v>165.83437499999997</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <f t="shared" si="0"/>
         <v>189.52500000000001</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f t="shared" ref="M2:R3" si="1">+C2*2</f>
         <v>171.47499999999999</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f t="shared" si="1"/>
         <v>180.5</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f t="shared" si="1"/>
         <v>189.52499999999998</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <f t="shared" si="1"/>
         <v>216.6</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f t="shared" si="1"/>
         <v>270.75</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f t="shared" si="1"/>
         <v>155.22999999999999</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <f t="shared" ref="S2:S3" si="2">+C2*2.8</f>
         <v>240.06499999999997</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <f t="shared" ref="T2:W3" si="3">+E2*2.8</f>
         <v>265.33499999999998</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <f t="shared" si="3"/>
         <v>303.23999999999995</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="27">
         <f t="shared" si="3"/>
         <v>379.04999999999995</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="27">
         <f t="shared" si="3"/>
         <v>217.32199999999997</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <f t="shared" ref="X2:X3" si="4">+G2*3.6</f>
         <v>487.35</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="29">
         <f t="shared" ref="Y2:AA3" si="5">+E2*2.5</f>
         <v>236.90624999999997</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="29">
         <f t="shared" si="5"/>
         <v>270.75</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="29">
         <f t="shared" si="5"/>
         <v>338.4375</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45200</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>45230</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>100*0.95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f>105*0.95*0.95</f>
         <v>94.762499999999989</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f>110*0.95*0.95</f>
         <v>99.274999999999991</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f>125*0.95*0.95</f>
         <v>112.8125</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>158*0.95*0.95</f>
         <v>142.595</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>90*0.95*0.95</f>
         <v>81.224999999999994</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f t="shared" si="0"/>
         <v>157.9375</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f t="shared" si="0"/>
         <v>165.83437499999997</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <f t="shared" si="0"/>
         <v>173.73124999999999</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <f t="shared" si="0"/>
         <v>197.421875</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <f t="shared" si="1"/>
         <v>180.5</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f t="shared" si="1"/>
         <v>189.52499999999998</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <f t="shared" si="1"/>
         <v>198.54999999999998</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <f t="shared" si="1"/>
         <v>225.625</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <f t="shared" si="1"/>
         <v>285.19</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <f t="shared" si="1"/>
         <v>162.44999999999999</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <f t="shared" si="2"/>
         <v>252.7</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f t="shared" si="3"/>
         <v>277.96999999999997</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f t="shared" si="3"/>
         <v>315.875</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f t="shared" si="3"/>
         <v>399.26599999999996</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f t="shared" si="3"/>
         <v>227.42999999999998</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <f t="shared" si="4"/>
         <v>513.34199999999998</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="29">
         <f t="shared" si="5"/>
         <v>248.18749999999997</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="29">
         <f t="shared" si="5"/>
         <v>282.03125</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="29">
         <f t="shared" si="5"/>
         <v>356.48750000000001</v>
       </c>
@@ -4200,7 +4316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4235,300 +4351,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>45047</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>45061</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <f>(95*0.95)*0.95</f>
         <v>85.737499999999997</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <f>100*0.95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <f>105*0.95*0.95</f>
         <v>94.762499999999989</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <f>120*0.95*0.95</f>
         <v>108.3</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>150*0.95*0.95</f>
         <v>135.375</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <f>86*0.95*0.95</f>
         <v>77.614999999999995</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f>+C2*1.75</f>
         <v>150.04062500000001</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <f>+D2*1.75</f>
         <v>157.9375</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <f>+E2*1.75</f>
         <v>165.83437499999997</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <f>+F2*1.75</f>
         <v>189.52500000000001</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f t="shared" ref="M2:R3" si="0">+C2*2</f>
         <v>171.47499999999999</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f t="shared" si="0"/>
         <v>180.5</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>189.52499999999998</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <f t="shared" si="0"/>
         <v>216.6</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>270.75</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f t="shared" si="0"/>
         <v>155.22999999999999</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <f>+C2*2.8</f>
         <v>240.06499999999997</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <f>+E2*2.8</f>
         <v>265.33499999999998</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <f>+F2*2.8</f>
         <v>303.23999999999995</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="27">
         <f>+G2*2.8</f>
         <v>379.04999999999995</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="27">
         <f>+H2*2.8</f>
         <v>217.32199999999997</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <f>+G2*3.6</f>
         <v>487.35</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="29">
         <f>+E2*2.5</f>
         <v>236.90624999999997</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="29">
         <f>+F2*2.5</f>
         <v>270.75</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="29">
         <f>+G2*2.5</f>
         <v>338.4375</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45062</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>45107</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>90*0.95*0.95</f>
         <v>81.224999999999994</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f>95*0.95*0.95</f>
         <v>85.737499999999997</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f>100*0.95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f>115*0.95*0.95</f>
         <v>103.78749999999999</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>143*0.95*0.95</f>
         <v>129.05749999999998</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>81*0.95*0.95</f>
         <v>73.102500000000006</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f t="shared" ref="I3:L3" si="1">+C3*1.75</f>
         <v>142.14374999999998</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f t="shared" si="1"/>
         <v>150.04062500000001</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <f t="shared" si="1"/>
         <v>157.9375</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <f t="shared" si="1"/>
         <v>181.62812499999998</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <f t="shared" si="0"/>
         <v>162.44999999999999</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f t="shared" si="0"/>
         <v>171.47499999999999</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <f t="shared" si="0"/>
         <v>180.5</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <f t="shared" si="0"/>
         <v>207.57499999999999</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <f t="shared" si="0"/>
         <v>258.11499999999995</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <f t="shared" si="0"/>
         <v>146.20500000000001</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <f t="shared" ref="S3" si="2">+C3*2.8</f>
         <v>227.42999999999998</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f t="shared" ref="T3:W3" si="3">+E3*2.8</f>
         <v>252.7</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f t="shared" si="3"/>
         <v>290.60499999999996</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f t="shared" si="3"/>
         <v>361.36099999999993</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f t="shared" si="3"/>
         <v>204.68700000000001</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <f t="shared" ref="X3" si="4">+G3*3.6</f>
         <v>464.60699999999991</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="29">
         <f t="shared" ref="Y3:AA3" si="5">+E3*2.5</f>
         <v>225.625</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="29">
         <f t="shared" si="5"/>
         <v>259.46875</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="29">
         <f t="shared" si="5"/>
         <v>322.64374999999995</v>
       </c>
@@ -4539,7 +4655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4577,732 +4693,732 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>45047</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>45061</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <f>95*0.95*0.77</f>
         <v>69.492500000000007</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <f>100*0.95*0.77</f>
         <v>73.150000000000006</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <f>105*0.95*0.77</f>
         <v>76.807500000000005</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <f>120*0.95*0.77</f>
         <v>87.78</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>150*0.95*0.77</f>
         <v>109.72500000000001</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <f>86*0.95*0.77</f>
         <v>62.909000000000006</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f>+C2*1.75</f>
         <v>121.61187500000001</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <f>+D2*1.75</f>
         <v>128.01250000000002</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <f>+E2*1.75</f>
         <v>134.41312500000001</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <f>+F2*1.75</f>
         <v>153.61500000000001</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f t="shared" ref="M2:R7" si="0">+C2*2</f>
         <v>138.98500000000001</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f t="shared" si="0"/>
         <v>146.30000000000001</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>153.61500000000001</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <f t="shared" si="0"/>
         <v>175.56</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>219.45000000000002</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f t="shared" si="0"/>
         <v>125.81800000000001</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <f>+C2*2.8</f>
         <v>194.57900000000001</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <f>+E2*2.8</f>
         <v>215.06100000000001</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <f>+F2*2.8</f>
         <v>245.78399999999999</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="27">
         <f>+G2*2.8</f>
         <v>307.23</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="27">
         <f>+H2*2.8</f>
         <v>176.14520000000002</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <f>+G2*3.6</f>
         <v>395.01000000000005</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="29">
         <f>+E2*2.5</f>
         <v>192.01875000000001</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="29">
         <f>+F2*2.5</f>
         <v>219.45</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="29">
         <f>+G2*2.5</f>
         <v>274.3125</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45062</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>45107</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>90*0.95*0.77</f>
         <v>65.835000000000008</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f>95*0.95*0.77</f>
         <v>69.492500000000007</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f>100*0.95*0.77</f>
         <v>73.150000000000006</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f>115*0.95*0.77</f>
         <v>84.122500000000002</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>143*0.95*0.77</f>
         <v>104.6045</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>81*0.95*0.77</f>
         <v>59.2515</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f t="shared" ref="I3:L7" si="1">+C3*1.75</f>
         <v>115.21125000000001</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f t="shared" si="1"/>
         <v>121.61187500000001</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <f t="shared" si="1"/>
         <v>128.01250000000002</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <f t="shared" si="1"/>
         <v>147.21437500000002</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <f t="shared" si="0"/>
         <v>131.67000000000002</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f t="shared" si="0"/>
         <v>138.98500000000001</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <f t="shared" si="0"/>
         <v>146.30000000000001</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <f t="shared" si="0"/>
         <v>168.245</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <f t="shared" si="0"/>
         <v>209.209</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <f t="shared" si="0"/>
         <v>118.503</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <f t="shared" ref="S3:S7" si="2">+C3*2.8</f>
         <v>184.33800000000002</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f t="shared" ref="T3:W7" si="3">+E3*2.8</f>
         <v>204.82</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f t="shared" si="3"/>
         <v>235.54299999999998</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f t="shared" si="3"/>
         <v>292.89259999999996</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f t="shared" si="3"/>
         <v>165.9042</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <f t="shared" ref="X3:X7" si="4">+G3*3.6</f>
         <v>376.57620000000003</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="29">
         <f t="shared" ref="Y3:AA7" si="5">+E3*2.5</f>
         <v>182.875</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="29">
         <f t="shared" si="5"/>
         <v>210.30625000000001</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="29">
         <f t="shared" si="5"/>
         <v>261.51125000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>45108</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>45121</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <f>95*0.95*0.77</f>
         <v>69.492500000000007</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <f>100*0.95*0.77</f>
         <v>73.150000000000006</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f>105*0.95*0.77</f>
         <v>76.807500000000005</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <f>120*0.95*0.77</f>
         <v>87.78</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <f>150*0.95*0.77</f>
         <v>109.72500000000001</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <f>86*0.95*0.77</f>
         <v>62.909000000000006</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f t="shared" si="1"/>
         <v>121.61187500000001</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <f t="shared" si="1"/>
         <v>128.01250000000002</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <f t="shared" si="1"/>
         <v>134.41312500000001</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <f t="shared" si="1"/>
         <v>153.61500000000001</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <f t="shared" si="0"/>
         <v>138.98500000000001</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <f t="shared" si="0"/>
         <v>146.30000000000001</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <f t="shared" si="0"/>
         <v>153.61500000000001</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <f t="shared" si="0"/>
         <v>175.56</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <f t="shared" si="0"/>
         <v>219.45000000000002</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <f t="shared" si="0"/>
         <v>125.81800000000001</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="26">
         <f t="shared" si="2"/>
         <v>194.57900000000001</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="27">
         <f t="shared" si="3"/>
         <v>215.06100000000001</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="27">
         <f t="shared" si="3"/>
         <v>245.78399999999999</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="27">
         <f t="shared" si="3"/>
         <v>307.23</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="27">
         <f t="shared" si="3"/>
         <v>176.14520000000002</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="28">
         <f t="shared" si="4"/>
         <v>395.01000000000005</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="29">
         <f t="shared" si="5"/>
         <v>192.01875000000001</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="29">
         <f t="shared" si="5"/>
         <v>219.45</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="29">
         <f t="shared" si="5"/>
         <v>274.3125</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>45122</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>45153</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <f>100*0.95*0.77</f>
         <v>73.150000000000006</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <f>105*0.95*0.77</f>
         <v>76.807500000000005</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <f>110*0.95*0.77</f>
         <v>80.465000000000003</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <f>125*0.95*0.77</f>
         <v>91.4375</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f>158*0.95*0.77</f>
         <v>115.577</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f>90*0.95*0.77</f>
         <v>65.835000000000008</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" si="1"/>
         <v>128.01250000000002</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f t="shared" si="1"/>
         <v>134.41312500000001</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f t="shared" si="1"/>
         <v>140.81375</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f t="shared" si="1"/>
         <v>160.015625</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <f t="shared" si="0"/>
         <v>146.30000000000001</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f t="shared" si="0"/>
         <v>153.61500000000001</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <f t="shared" si="0"/>
         <v>160.93</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <f t="shared" si="0"/>
         <v>182.875</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <f t="shared" si="0"/>
         <v>231.154</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="25">
         <f t="shared" si="0"/>
         <v>131.67000000000002</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="26">
         <f t="shared" si="2"/>
         <v>204.82</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <f t="shared" si="3"/>
         <v>225.30199999999999</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="27">
         <f t="shared" si="3"/>
         <v>256.02499999999998</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="27">
         <f t="shared" si="3"/>
         <v>323.61559999999997</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="27">
         <f t="shared" si="3"/>
         <v>184.33800000000002</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="28">
         <f t="shared" si="4"/>
         <v>416.0772</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="29">
         <f t="shared" si="5"/>
         <v>201.16250000000002</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="29">
         <f t="shared" si="5"/>
         <v>228.59375</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="29">
         <f t="shared" si="5"/>
         <v>288.9425</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>45154</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>45199</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <f>95*0.95*0.77</f>
         <v>69.492500000000007</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <f>100*0.95*0.77</f>
         <v>73.150000000000006</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f>105*0.95*0.77</f>
         <v>76.807500000000005</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <f>120*0.95*0.77</f>
         <v>87.78</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <f>150*0.95*0.77</f>
         <v>109.72500000000001</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <f>86*0.95*0.77</f>
         <v>62.909000000000006</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f t="shared" si="1"/>
         <v>121.61187500000001</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f t="shared" si="1"/>
         <v>128.01250000000002</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <f t="shared" si="1"/>
         <v>134.41312500000001</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <f t="shared" si="1"/>
         <v>153.61500000000001</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <f t="shared" si="0"/>
         <v>138.98500000000001</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <f t="shared" si="0"/>
         <v>146.30000000000001</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <f t="shared" si="0"/>
         <v>153.61500000000001</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <f t="shared" si="0"/>
         <v>175.56</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <f t="shared" si="0"/>
         <v>219.45000000000002</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="25">
         <f t="shared" si="0"/>
         <v>125.81800000000001</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="26">
         <f t="shared" si="2"/>
         <v>194.57900000000001</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="27">
         <f t="shared" si="3"/>
         <v>215.06100000000001</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="27">
         <f t="shared" si="3"/>
         <v>245.78399999999999</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="27">
         <f t="shared" si="3"/>
         <v>307.23</v>
       </c>
-      <c r="W6" s="28">
+      <c r="W6" s="27">
         <f t="shared" si="3"/>
         <v>176.14520000000002</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="28">
         <f t="shared" si="4"/>
         <v>395.01000000000005</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="29">
         <f t="shared" si="5"/>
         <v>192.01875000000001</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="29">
         <f t="shared" si="5"/>
         <v>219.45</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="29">
         <f t="shared" si="5"/>
         <v>274.3125</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>45200</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>45230</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <f>100*0.95*0.77</f>
         <v>73.150000000000006</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <f>105*0.95*0.77</f>
         <v>76.807500000000005</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <f>110*0.95*0.77</f>
         <v>80.465000000000003</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <f>125*0.95*0.77</f>
         <v>91.4375</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f>158*0.95*0.77</f>
         <v>115.577</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f>90*0.95*0.77</f>
         <v>65.835000000000008</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f t="shared" si="1"/>
         <v>128.01250000000002</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <f t="shared" si="1"/>
         <v>134.41312500000001</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <f t="shared" si="1"/>
         <v>140.81375</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <f t="shared" si="1"/>
         <v>160.015625</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <f t="shared" si="0"/>
         <v>146.30000000000001</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <f t="shared" si="0"/>
         <v>153.61500000000001</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <f t="shared" si="0"/>
         <v>160.93</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <f t="shared" si="0"/>
         <v>182.875</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <f t="shared" si="0"/>
         <v>231.154</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <f t="shared" si="0"/>
         <v>131.67000000000002</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="26">
         <f t="shared" si="2"/>
         <v>204.82</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <f t="shared" si="3"/>
         <v>225.30199999999999</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="27">
         <f t="shared" si="3"/>
         <v>256.02499999999998</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="27">
         <f t="shared" si="3"/>
         <v>323.61559999999997</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="27">
         <f t="shared" si="3"/>
         <v>184.33800000000002</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="28">
         <f t="shared" si="4"/>
         <v>416.0772</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="Y7" s="29">
         <f t="shared" si="5"/>
         <v>201.16250000000002</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="29">
         <f t="shared" si="5"/>
         <v>228.59375</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AA7" s="29">
         <f t="shared" si="5"/>
         <v>288.9425</v>
       </c>
@@ -5314,7 +5430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5352,516 +5468,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>45047</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>45061</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <f>95*0.95*0.75</f>
         <v>67.6875</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <f>100*0.95*0.75</f>
         <v>71.25</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <f>105*0.95*0.75</f>
         <v>74.8125</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <f>120*0.95*0.75</f>
         <v>85.5</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>150*0.95*0.75</f>
         <v>106.875</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <f>86*0.95*0.75</f>
         <v>61.275000000000006</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f>+C2*1.75</f>
         <v>118.453125</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <f>+D2*1.75</f>
         <v>124.6875</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <f>+E2*1.75</f>
         <v>130.921875</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <f>+F2*1.75</f>
         <v>149.625</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f t="shared" ref="M2:R5" si="0">+C2*2</f>
         <v>135.375</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f t="shared" si="0"/>
         <v>142.5</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>149.625</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>213.75</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f t="shared" si="0"/>
         <v>122.55000000000001</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <f>+C2*2.8</f>
         <v>189.52499999999998</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <f>+E2*2.8</f>
         <v>209.47499999999999</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <f>+F2*2.8</f>
         <v>239.39999999999998</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="27">
         <f>+G2*2.8</f>
         <v>299.25</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="27">
         <f>+H2*2.8</f>
         <v>171.57</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <f>+G2*3.6</f>
         <v>384.75</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="29">
         <f>+E2*2.5</f>
         <v>187.03125</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="29">
         <f>+F2*2.5</f>
         <v>213.75</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="29">
         <f>+G2*2.5</f>
         <v>267.1875</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45062</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>45107</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <f>90*0.95*0.75</f>
         <v>64.125</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f>95*0.95*0.75</f>
         <v>67.6875</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f>100*0.95*0.75</f>
         <v>71.25</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f>115*0.95*0.75</f>
         <v>81.9375</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>143*0.95*0.75</f>
         <v>101.88749999999999</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>81*0.95*0.75</f>
         <v>57.712500000000006</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f t="shared" ref="I3:L5" si="1">+C3*1.75</f>
         <v>112.21875</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f t="shared" si="1"/>
         <v>118.453125</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <f t="shared" si="1"/>
         <v>124.6875</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <f t="shared" si="1"/>
         <v>143.390625</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <f t="shared" si="0"/>
         <v>128.25</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f t="shared" si="0"/>
         <v>135.375</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <f t="shared" si="0"/>
         <v>142.5</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <f t="shared" si="0"/>
         <v>163.875</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <f t="shared" si="0"/>
         <v>203.77499999999998</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <f t="shared" si="0"/>
         <v>115.42500000000001</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <f t="shared" ref="S3:S5" si="2">+C3*2.8</f>
         <v>179.54999999999998</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f t="shared" ref="T3:W5" si="3">+E3*2.8</f>
         <v>199.5</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f t="shared" si="3"/>
         <v>229.42499999999998</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f t="shared" si="3"/>
         <v>285.28499999999997</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f t="shared" si="3"/>
         <v>161.595</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <f t="shared" ref="X3:X5" si="4">+G3*3.6</f>
         <v>366.79499999999996</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="29">
         <f t="shared" ref="Y3:AA5" si="5">+E3*2.5</f>
         <v>178.125</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="29">
         <f t="shared" si="5"/>
         <v>204.84375</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="29">
         <f t="shared" si="5"/>
         <v>254.71874999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>45170</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>45199</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <f>95*0.95*0.75</f>
         <v>67.6875</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <f>100*0.95*0.75</f>
         <v>71.25</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f>105*0.95*0.75</f>
         <v>74.8125</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <f>120*0.95*0.75</f>
         <v>85.5</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <f>150*0.95*0.75</f>
         <v>106.875</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <f>86*0.95*0.75</f>
         <v>61.275000000000006</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f t="shared" si="1"/>
         <v>118.453125</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <f t="shared" si="1"/>
         <v>124.6875</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <f t="shared" si="1"/>
         <v>130.921875</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <f t="shared" si="1"/>
         <v>149.625</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <f t="shared" si="0"/>
         <v>135.375</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <f t="shared" si="0"/>
         <v>142.5</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <f t="shared" si="0"/>
         <v>149.625</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <f t="shared" si="0"/>
         <v>213.75</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <f t="shared" si="0"/>
         <v>122.55000000000001</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="26">
         <f t="shared" si="2"/>
         <v>189.52499999999998</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="27">
         <f t="shared" si="3"/>
         <v>209.47499999999999</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="27">
         <f t="shared" si="3"/>
         <v>239.39999999999998</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="27">
         <f t="shared" si="3"/>
         <v>299.25</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="27">
         <f t="shared" si="3"/>
         <v>171.57</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="28">
         <f t="shared" si="4"/>
         <v>384.75</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="29">
         <f t="shared" si="5"/>
         <v>187.03125</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="29">
         <f t="shared" si="5"/>
         <v>213.75</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="29">
         <f t="shared" si="5"/>
         <v>267.1875</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>45200</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>45230</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <f>100*0.95*0.75</f>
         <v>71.25</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <f>105*0.95*0.75</f>
         <v>74.8125</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <f>110*0.95*0.75</f>
         <v>78.375</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <f>125*0.95*0.75</f>
         <v>89.0625</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f>158*0.95*0.75</f>
         <v>112.57499999999999</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f>90*0.95*0.75</f>
         <v>64.125</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" si="1"/>
         <v>124.6875</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f t="shared" si="1"/>
         <v>130.921875</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f t="shared" si="1"/>
         <v>137.15625</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f t="shared" si="1"/>
         <v>155.859375</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <f t="shared" si="0"/>
         <v>142.5</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f t="shared" si="0"/>
         <v>149.625</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <f t="shared" si="0"/>
         <v>156.75</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <f t="shared" si="0"/>
         <v>178.125</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <f t="shared" si="0"/>
         <v>225.14999999999998</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="25">
         <f t="shared" si="0"/>
         <v>128.25</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="26">
         <f t="shared" si="2"/>
         <v>199.5</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <f t="shared" si="3"/>
         <v>219.45</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="27">
         <f t="shared" si="3"/>
         <v>249.37499999999997</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="27">
         <f t="shared" si="3"/>
         <v>315.20999999999992</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="27">
         <f t="shared" si="3"/>
         <v>179.54999999999998</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="28">
         <f t="shared" si="4"/>
         <v>405.27</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="29">
         <f t="shared" si="5"/>
         <v>195.9375</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="29">
         <f t="shared" si="5"/>
         <v>222.65625</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="29">
         <f t="shared" si="5"/>
         <v>281.4375</v>
       </c>
@@ -5873,7 +5989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5911,732 +6027,732 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>45047</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>45061</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <f>95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <f>100*0.95</f>
         <v>95</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <f>105*0.95</f>
         <v>99.75</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <f>120*0.95</f>
         <v>114</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <f>150*0.95</f>
         <v>142.5</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <f>86*0.95</f>
         <v>81.7</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f>+C2*1.75</f>
         <v>157.9375</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <f>+D2*1.75</f>
         <v>166.25</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <f>+E2*1.75</f>
         <v>174.5625</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <f>+F2*1.75</f>
         <v>199.5</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f t="shared" ref="M2:R2" si="0">+C2*2</f>
         <v>180.5</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>199.5</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <f t="shared" si="0"/>
         <v>163.4</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <f>+C2*2.8</f>
         <v>252.7</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <f>+E2*2.8</f>
         <v>279.29999999999995</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <f>+F2*2.8</f>
         <v>319.2</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="27">
         <f>+G2*2.8</f>
         <v>399</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="27">
         <f>+H2*2.8</f>
         <v>228.76</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="28">
         <f>+G2*3.6</f>
         <v>513</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="29">
         <f>+E2*2.5</f>
         <v>249.375</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="29">
         <f>+F2*2.5</f>
         <v>285</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="29">
         <f>+G2*2.5</f>
         <v>356.25</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45062</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>45107</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>90*0.95</f>
         <v>85.5</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f>95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f>100*0.95</f>
         <v>95</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f>115*0.95</f>
         <v>109.25</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>143*0.95</f>
         <v>135.85</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>81*0.95</f>
         <v>76.95</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f t="shared" ref="I3:L7" si="1">+C3*1.75</f>
         <v>149.625</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f t="shared" si="1"/>
         <v>157.9375</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <f t="shared" si="1"/>
         <v>166.25</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <f t="shared" si="1"/>
         <v>191.1875</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <f t="shared" ref="M3:R7" si="2">+C3*2</f>
         <v>171</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f t="shared" si="2"/>
         <v>180.5</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <f t="shared" si="2"/>
         <v>218.5</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <f t="shared" si="2"/>
         <v>271.7</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <f t="shared" si="2"/>
         <v>153.9</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="26">
         <f t="shared" ref="S3:S7" si="3">+C3*2.8</f>
         <v>239.39999999999998</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <f t="shared" ref="T3:W7" si="4">+E3*2.8</f>
         <v>266</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="27">
         <f t="shared" si="4"/>
         <v>305.89999999999998</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="27">
         <f t="shared" si="4"/>
         <v>380.37999999999994</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f t="shared" si="4"/>
         <v>215.46</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <f t="shared" ref="X3:X7" si="5">+G3*3.6</f>
         <v>489.06</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="29">
         <f t="shared" ref="Y3:AA7" si="6">+E3*2.5</f>
         <v>237.5</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="29">
         <f t="shared" si="6"/>
         <v>273.125</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="29">
         <f t="shared" si="6"/>
         <v>339.625</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>45108</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>45121</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <f>95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <f>100*0.95</f>
         <v>95</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f>105*0.95</f>
         <v>99.75</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <f>120*0.95</f>
         <v>114</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <f>150*0.95</f>
         <v>142.5</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <f>86*0.95</f>
         <v>81.7</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f t="shared" si="1"/>
         <v>157.9375</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <f t="shared" si="1"/>
         <v>166.25</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <f t="shared" si="1"/>
         <v>174.5625</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <f t="shared" si="1"/>
         <v>199.5</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <f t="shared" si="2"/>
         <v>180.5</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <f t="shared" si="2"/>
         <v>199.5</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <f t="shared" si="2"/>
         <v>163.4</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="26">
         <f t="shared" si="3"/>
         <v>252.7</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="27">
         <f t="shared" si="4"/>
         <v>279.29999999999995</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="27">
         <f t="shared" si="4"/>
         <v>319.2</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="27">
         <f t="shared" si="4"/>
         <v>399</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="27">
         <f t="shared" si="4"/>
         <v>228.76</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="28">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="29">
         <f t="shared" si="6"/>
         <v>249.375</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="29">
         <f t="shared" si="6"/>
         <v>285</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="29">
         <f t="shared" si="6"/>
         <v>356.25</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>45122</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>45153</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <f>100*0.95</f>
         <v>95</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <f>105*0.95</f>
         <v>99.75</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <f>110*0.95</f>
         <v>104.5</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <f>125*0.95</f>
         <v>118.75</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f>158*0.95</f>
         <v>150.1</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f>90*0.95</f>
         <v>85.5</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" si="1"/>
         <v>166.25</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f t="shared" si="1"/>
         <v>174.5625</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f t="shared" si="1"/>
         <v>182.875</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f t="shared" si="1"/>
         <v>207.8125</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f t="shared" si="2"/>
         <v>199.5</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <f t="shared" si="2"/>
         <v>237.5</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <f t="shared" si="2"/>
         <v>300.2</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="25">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="26">
         <f t="shared" si="3"/>
         <v>266</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <f t="shared" si="4"/>
         <v>292.59999999999997</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="27">
         <f t="shared" si="4"/>
         <v>332.5</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="27">
         <f t="shared" si="4"/>
         <v>420.28</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="27">
         <f t="shared" si="4"/>
         <v>239.39999999999998</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="28">
         <f t="shared" si="5"/>
         <v>540.36</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="29">
         <f t="shared" si="6"/>
         <v>261.25</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="29">
         <f t="shared" si="6"/>
         <v>296.875</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="29">
         <f t="shared" si="6"/>
         <v>375.25</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>45154</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>45199</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <f>95*0.95</f>
         <v>90.25</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <f>100*0.95</f>
         <v>95</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f>105*0.95</f>
         <v>99.75</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <f>120*0.95</f>
         <v>114</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <f>150*0.95</f>
         <v>142.5</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <f>86*0.95</f>
         <v>81.7</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f t="shared" si="1"/>
         <v>157.9375</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f t="shared" si="1"/>
         <v>166.25</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <f t="shared" si="1"/>
         <v>174.5625</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <f t="shared" si="1"/>
         <v>199.5</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <f t="shared" si="2"/>
         <v>180.5</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <f t="shared" si="2"/>
         <v>199.5</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="25">
         <f t="shared" si="2"/>
         <v>163.4</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="26">
         <f t="shared" si="3"/>
         <v>252.7</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="27">
         <f t="shared" si="4"/>
         <v>279.29999999999995</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="27">
         <f t="shared" si="4"/>
         <v>319.2</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="27">
         <f t="shared" si="4"/>
         <v>399</v>
       </c>
-      <c r="W6" s="28">
+      <c r="W6" s="27">
         <f t="shared" si="4"/>
         <v>228.76</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="28">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="29">
         <f t="shared" si="6"/>
         <v>249.375</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="29">
         <f t="shared" si="6"/>
         <v>285</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="29">
         <f t="shared" si="6"/>
         <v>356.25</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>45200</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>45230</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <f>100*0.95</f>
         <v>95</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <f>105*0.95</f>
         <v>99.75</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <f>110*0.95</f>
         <v>104.5</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <f>125*0.95</f>
         <v>118.75</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f>158*0.95</f>
         <v>150.1</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f>90*0.95</f>
         <v>85.5</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f t="shared" si="1"/>
         <v>166.25</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <f t="shared" si="1"/>
         <v>174.5625</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <f t="shared" si="1"/>
         <v>182.875</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <f t="shared" si="1"/>
         <v>207.8125</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <f t="shared" si="2"/>
         <v>199.5</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <f t="shared" si="2"/>
         <v>237.5</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <f t="shared" si="2"/>
         <v>300.2</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="26">
         <f t="shared" si="3"/>
         <v>266</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <f t="shared" si="4"/>
         <v>292.59999999999997</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="27">
         <f t="shared" si="4"/>
         <v>332.5</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="27">
         <f t="shared" si="4"/>
         <v>420.28</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="27">
         <f t="shared" si="4"/>
         <v>239.39999999999998</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="28">
         <f t="shared" si="5"/>
         <v>540.36</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="Y7" s="29">
         <f t="shared" si="6"/>
         <v>261.25</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="29">
         <f t="shared" si="6"/>
         <v>296.875</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AA7" s="29">
         <f t="shared" si="6"/>
         <v>375.25</v>
       </c>
